--- a/holdings.xlsx
+++ b/holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvarez/Desktop/streamlit_LITG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F1834-FECA-1A43-9689-C44103FE6D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC84812-F95B-C046-8603-49AE25FBD65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{B8879557-9C5E-AC41-8A06-F0C32113409B}"/>
   </bookViews>
